--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1141,7 +1141,7 @@
     <col min="5" max="5" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1205,7 +1205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1250,7 +1250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1282,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1331,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1346,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1410,7 +1410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1457,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1489,7 +1489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1504,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1534,7 +1534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1566,7 +1566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -1581,7 +1581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1596,7 +1596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>12</v>
@@ -1611,7 +1611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -1660,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -1709,7 +1709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -1724,7 +1724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -1756,7 +1756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>12</v>
@@ -1852,7 +1852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1899,7 +1899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>12</v>
@@ -1980,7 +1980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>12</v>
@@ -2265,7 +2265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>12</v>
@@ -2331,7 +2331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>12</v>
@@ -2363,7 +2363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>12</v>
@@ -2378,7 +2378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>12</v>
@@ -2393,7 +2393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>9</v>
@@ -2442,7 +2442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>12</v>
@@ -2474,7 +2474,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>12</v>
@@ -2489,7 +2489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>12</v>
@@ -2504,7 +2504,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>12</v>
@@ -2536,7 +2536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>12</v>
@@ -2568,7 +2568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>12</v>
@@ -2668,7 +2668,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>12</v>
@@ -2700,7 +2700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>12</v>
@@ -2715,7 +2715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>12</v>
@@ -2747,7 +2747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>12</v>
@@ -2762,7 +2762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>12</v>
@@ -2811,7 +2811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>12</v>
@@ -2860,7 +2860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>12</v>
@@ -2875,7 +2875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>12</v>
@@ -2924,7 +2924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>12</v>
@@ -2990,7 +2990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>12</v>
@@ -3022,7 +3022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>12</v>
@@ -3037,7 +3037,7 @@
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>12</v>
@@ -3069,7 +3069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>12</v>
@@ -3084,7 +3084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>12</v>
@@ -3116,7 +3116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>12</v>
@@ -3131,7 +3131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>12</v>
@@ -3146,7 +3146,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>12</v>
@@ -3161,7 +3161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>12</v>
@@ -3176,7 +3176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>12</v>
@@ -3208,7 +3208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>12</v>
@@ -3223,7 +3223,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>12</v>
@@ -3238,7 +3238,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>12</v>
@@ -3253,7 +3253,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>12</v>
@@ -3268,7 +3268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>12</v>
@@ -3317,7 +3317,7 @@
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>12</v>
@@ -3434,7 +3434,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>12</v>
@@ -3449,7 +3449,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>12</v>
@@ -3481,7 +3481,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>12</v>
@@ -3496,7 +3496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>9</v>
@@ -3562,7 +3562,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>12</v>
@@ -3577,7 +3577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>9</v>
@@ -3609,7 +3609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>12</v>
@@ -3624,7 +3624,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>12</v>
@@ -3656,7 +3656,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
         <v>120</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>12</v>
@@ -3688,7 +3688,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>12</v>
@@ -3737,7 +3737,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>12</v>
@@ -3752,7 +3752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>12</v>
@@ -3767,7 +3767,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>12</v>
@@ -3782,7 +3782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>9</v>
@@ -3797,7 +3797,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>12</v>
@@ -3846,7 +3846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>9</v>
@@ -3878,7 +3878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>12</v>
@@ -3927,7 +3927,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>9</v>
@@ -3942,7 +3942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>9</v>
@@ -3957,7 +3957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>12</v>
@@ -3972,7 +3972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>12</v>
@@ -3987,7 +3987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>12</v>
@@ -4002,7 +4002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>12</v>
@@ -4034,7 +4034,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>12</v>
@@ -4049,7 +4049,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>12</v>
@@ -4081,7 +4081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>12</v>
@@ -4113,7 +4113,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>12</v>
@@ -4128,7 +4128,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>12</v>
@@ -4143,7 +4143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>12</v>
@@ -4158,7 +4158,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>12</v>
@@ -4173,7 +4173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>12</v>
@@ -4222,7 +4222,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>12</v>
@@ -4339,7 +4339,7 @@
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>12</v>
@@ -4354,7 +4354,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>12</v>
@@ -4420,7 +4420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>12</v>
@@ -4571,7 +4571,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>12</v>
@@ -4586,7 +4586,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>12</v>
@@ -4601,7 +4601,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>12</v>
@@ -4616,7 +4616,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>12</v>
@@ -4665,7 +4665,7 @@
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>12</v>
@@ -4714,7 +4714,7 @@
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>12</v>
@@ -4729,7 +4729,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>12</v>
@@ -4744,7 +4744,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
         <v>12</v>
@@ -4776,7 +4776,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
         <v>221</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>12</v>
@@ -4825,7 +4825,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>12</v>
@@ -4857,7 +4857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>12</v>
@@ -4872,7 +4872,7 @@
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>12</v>
@@ -4887,7 +4887,7 @@
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>12</v>
@@ -4902,7 +4902,7 @@
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>12</v>
@@ -4951,7 +4951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>12</v>
@@ -4966,7 +4966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>12</v>
@@ -5032,7 +5032,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
         <v>234</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>12</v>
@@ -5081,7 +5081,7 @@
         <v>236</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>12</v>
@@ -5096,7 +5096,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>12</v>
@@ -5111,7 +5111,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>12</v>
@@ -5126,7 +5126,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>12</v>
@@ -5141,7 +5141,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>9</v>
@@ -5156,7 +5156,7 @@
         <v>238</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>12</v>
@@ -5171,7 +5171,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>12</v>
@@ -5186,7 +5186,7 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>12</v>
@@ -5201,7 +5201,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>12</v>
@@ -5216,7 +5216,7 @@
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>12</v>
@@ -5231,7 +5231,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1" t="s">
         <v>215</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>12</v>
@@ -5263,7 +5263,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>12</v>
@@ -5278,7 +5278,7 @@
         <v>246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>12</v>
@@ -5293,7 +5293,7 @@
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>12</v>
@@ -5308,7 +5308,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1" t="s">
         <v>249</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>12</v>
@@ -5340,7 +5340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>12</v>
@@ -5355,7 +5355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>9</v>
@@ -5370,7 +5370,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1" t="s">
         <v>252</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>12</v>
